--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/99/incorrect_predictions_99.xlsx
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16-29</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/99/incorrect_predictions_99.xlsx
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>16-29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
